--- a/biology/Histoire de la zoologie et de la botanique/Gary_Allan_Polis/Gary_Allan_Polis.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gary_Allan_Polis/Gary_Allan_Polis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gary Allan Polis est un  zoologiste spécialiste des scorpions, né en 1946 et mort le 27 mars 2000 dans la Mer de Cortez dans un naufrage lors d’une expédition scientifique.
 Il fait ses études à l’université de Californie à Riverside et sous Roger Farley. Il y étudie notamment un scorpion, Smeringurus mesaensis de la famille des Vaejovidae.
